--- a/mp_spreadsheet.xlsx
+++ b/mp_spreadsheet.xlsx
@@ -77,7 +77,7 @@
     <t>Nodes Expanded</t>
   </si>
   <si>
-    <t>Path Length</t>
+    <t>Path Length/Cost</t>
   </si>
 </sst>
 </file>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G27"/>
+  <dimension ref="B2:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,138 +418,242 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>274</v>
+      </c>
+      <c r="D6">
+        <v>176</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>220</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>620</v>
+      </c>
+      <c r="D7">
+        <v>439</v>
+      </c>
+      <c r="E7">
+        <v>463</v>
+      </c>
+      <c r="F7">
+        <v>539</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="E8">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="G10">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="G11">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="G12">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="G13">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
+      <c r="C20">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>173</v>
+      </c>
+      <c r="E20">
+        <v>74</v>
+      </c>
+      <c r="F20">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
+      <c r="C21">
+        <v>210</v>
+      </c>
+      <c r="D21">
+        <v>209</v>
+      </c>
+      <c r="E21">
+        <v>210</v>
+      </c>
+      <c r="F21">
+        <v>210</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
+      <c r="E22">
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
